--- a/files/lci_igu.xlsx
+++ b/files/lci_igu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADA3F50-E5BD-448F-B93E-DB4C27E46248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2BA917-746B-43ED-8A1C-464FA39F01B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="818" activeTab="1" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
+    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" tabRatio="818" firstSheet="5" activeTab="13" xr2:uid="{B87BFFB3-3456-42B2-AA1B-272EE0BB9BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hypothesis" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6607" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="452">
   <si>
     <t>skip</t>
   </si>
@@ -782,9 +782,6 @@
     <t>lamination of the first layer of PVB</t>
   </si>
   <si>
-    <t>lamination of the layer of PET</t>
-  </si>
-  <si>
     <t>sputtering, indium tin oxide, for liquid crystal display</t>
   </si>
   <si>
@@ -812,9 +809,6 @@
     <t>Second carrier layer, PET 175um, which is laminated also</t>
   </si>
   <si>
-    <t>lamination of the second layer of PET</t>
-  </si>
-  <si>
     <t>lamination of the second layer of PVB</t>
   </si>
   <si>
@@ -848,9 +842,6 @@
     <t>secondary glass sheet for the laminated glass, 2% off-cuts</t>
   </si>
   <si>
-    <t>Smart Glass factory from IGU process plant = 120 km in BE</t>
-  </si>
-  <si>
     <t>distance btw the IGU processing plant and the construction site</t>
   </si>
   <si>
@@ -1310,9 +1301,6 @@
     <t>param_t_lsg * param_g_density / 2</t>
   </si>
   <si>
-    <t>param_t_lsg * param_g_density * 120</t>
-  </si>
-  <si>
     <t>param_t_tsg</t>
   </si>
   <si>
@@ -1443,6 +1431,9 @@
   </si>
   <si>
     <t>be_market_silica_sand</t>
+  </si>
+  <si>
+    <t>lamination of the two layers of PET</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1714,9 +1705,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1737,9 +1725,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2238,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
@@ -2257,7 +2242,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -2365,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -2398,10 +2383,10 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2415,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>41</v>
@@ -2451,12 +2436,12 @@
         <v>213</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -2496,7 +2481,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2517,7 +2502,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2546,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
@@ -2564,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -2661,7 +2646,7 @@
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -2701,13 +2686,13 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -2747,7 +2732,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P12" s="10"/>
     </row>
@@ -2834,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
@@ -2853,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -2961,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -2994,10 +2979,10 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3011,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>41</v>
@@ -3052,7 +3037,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -3092,7 +3077,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3140,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
@@ -3158,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -3255,7 +3240,7 @@
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -3295,13 +3280,13 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -3341,7 +3326,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P12" s="10"/>
     </row>
@@ -3396,10 +3381,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7945C508-5ECC-446E-8101-00ACC7E59EDA}">
   <sheetPr codeName="Sheet38"/>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3447,7 +3432,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -3555,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -3588,10 +3573,10 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3601,7 +3586,7 @@
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="78">
         <v>0.91600000000000004</v>
       </c>
       <c r="D12" s="46"/>
@@ -3636,103 +3621,104 @@
         <v>29</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="80">
-        <v>9.67</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="9" t="s">
+    <row r="13" spans="1:16" s="19" customFormat="1">
+      <c r="A13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="79">
+        <v>0.13403999999999999</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>57</v>
+      <c r="G13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="19" customFormat="1">
-      <c r="A14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="81">
-        <v>0.13403999999999999</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="20" t="s">
+    <row r="14" spans="1:16" s="21" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="80">
+        <f>9.67</f>
+        <v>9.67</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>53</v>
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>233</v>
@@ -3745,7 +3731,7 @@
       <c r="B15" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="80">
         <v>0.52500000000000002</v>
       </c>
       <c r="D15" s="50"/>
@@ -3793,7 +3779,7 @@
       <c r="B16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="80">
         <v>0.245</v>
       </c>
       <c r="D16" s="50"/>
@@ -3841,8 +3827,8 @@
       <c r="B17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="82">
-        <v>9.67</v>
+      <c r="C17" s="80">
+        <v>14.5</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="9" t="s">
@@ -3879,17 +3865,17 @@
         <v>57</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>234</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="80">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D18" s="50"/>
@@ -3924,20 +3910,20 @@
         <v>29</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="80">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D19" s="50"/>
@@ -3972,20 +3958,20 @@
         <v>29</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="80">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D20" s="50"/>
@@ -4020,10 +4006,10 @@
         <v>29</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="21" customFormat="1">
@@ -4033,7 +4019,7 @@
       <c r="B21" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="80">
         <v>0.245</v>
       </c>
       <c r="D21" s="50"/>
@@ -4071,18 +4057,18 @@
         <v>231</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="21" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="82">
-        <v>9.67</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="80">
+        <v>0.13403999999999999</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="9" t="s">
@@ -4092,7 +4078,7 @@
         <v>29</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>32</v>
@@ -4115,22 +4101,23 @@
       <c r="N22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>57</v>
+      <c r="O22" s="13" t="s">
+        <v>422</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
+      <c r="A23" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="82">
-        <v>0.13403999999999999</v>
+        <v>33</v>
+      </c>
+      <c r="C23" s="80">
+        <f>9.67*0.75</f>
+        <v>7.2524999999999995</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="9" t="s">
@@ -4140,103 +4127,103 @@
         <v>29</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="19" customFormat="1">
+      <c r="A24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="79">
+        <v>0.13403999999999999</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="82">
-        <v>9.67</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>57</v>
+      <c r="H24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="19" customFormat="1">
-      <c r="A25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="21" customFormat="1">
+      <c r="A25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="81">
-        <v>0.13403999999999999</v>
-      </c>
-      <c r="D25" s="48"/>
+      <c r="C25" s="80">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D25" s="50"/>
       <c r="E25" s="20" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>48</v>
+      <c r="G25" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>32</v>
@@ -4259,74 +4246,74 @@
       <c r="N25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="20" t="s">
-        <v>53</v>
+      <c r="O25" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="21" customFormat="1">
-      <c r="A26" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="7" customFormat="1">
+      <c r="A26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="82">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="7" customFormat="1">
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C27" s="32">
-        <v>0</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>409</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D27" s="45"/>
       <c r="E27" s="14" t="s">
         <v>90</v>
       </c>
@@ -4337,7 +4324,7 @@
         <v>35</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>29</v>
@@ -4358,63 +4345,15 @@
         <v>29</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="P27" s="24" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="32">
-        <v>1</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>354</v>
-      </c>
+      <c r="D28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="D29" s="9"/>
       <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="F30" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4424,10 +4363,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0257930E-09BD-409F-9D77-4723ACF13F22}">
   <sheetPr codeName="Sheet39"/>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4450,18 +4389,18 @@
       <c r="B1">
         <v>11</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="56"/>
+        <v>244</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -4476,11 +4415,11 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -4490,8 +4429,8 @@
         <v>35</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -4500,7 +4439,7 @@
       <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -4615,33 +4554,31 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="60">
-        <v>0</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>41</v>
+      <c r="A12" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>32</v>
+      <c r="G12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>29</v>
@@ -4661,73 +4598,25 @@
       <c r="N12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="32">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="7"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="O12" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="7"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4740,7 +4629,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4774,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4793,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4814,7 +4703,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -4893,7 +4782,7 @@
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>36</v>
@@ -4933,13 +4822,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -4979,7 +4868,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -5025,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5044,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5144,7 +5033,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -5184,7 +5073,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -5199,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -5246,7 +5135,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -5284,7 +5173,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -5324,7 +5213,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -5371,7 +5260,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5390,7 +5279,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5411,7 +5300,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -5490,7 +5379,7 @@
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>36</v>
@@ -5530,13 +5419,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -5576,7 +5465,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -5622,7 +5511,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5641,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -5741,7 +5630,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -5781,7 +5670,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -5796,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -5843,7 +5732,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -5881,7 +5770,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -5921,7 +5810,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -5935,7 +5824,7 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -6004,7 +5893,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.75">
       <c r="A6" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P6"/>
     </row>
@@ -6022,7 +5911,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -6033,116 +5922,116 @@
     </row>
     <row r="8" spans="1:20" s="38" customFormat="1">
       <c r="A8" s="38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="55">
+        <v>256</v>
+      </c>
+      <c r="C8" s="54">
         <v>2.5</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:20" s="38" customFormat="1">
       <c r="A9" s="38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="61">
+        <v>266</v>
+      </c>
+      <c r="C9" s="59">
         <v>10</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:20" s="38" customFormat="1">
       <c r="A10" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C10" s="61">
+        <v>266</v>
+      </c>
+      <c r="C10" s="59">
         <v>10</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+        <v>261</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:20" s="38" customFormat="1">
       <c r="A11" s="38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="59">
         <v>2</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+        <v>252</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:20" s="38" customFormat="1">
       <c r="A12" s="38" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="59">
         <v>125</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+        <v>254</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="38" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="61">
+        <v>266</v>
+      </c>
+      <c r="C13" s="59">
         <v>8</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G13" s="38"/>
       <c r="I13" s="9"/>
@@ -6154,16 +6043,16 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" s="61">
+        <v>266</v>
+      </c>
+      <c r="C14" s="59">
         <v>6</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G14" s="38"/>
       <c r="I14" s="9"/>
@@ -6175,16 +6064,16 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="38" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="61">
+        <v>266</v>
+      </c>
+      <c r="C15" s="59">
         <v>8</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G15" s="38"/>
       <c r="I15" s="9"/>
@@ -6197,7 +6086,7 @@
     <row r="16" spans="1:20">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
-      <c r="C16" s="61"/>
+      <c r="C16" s="59"/>
       <c r="E16" s="39"/>
       <c r="G16" s="38"/>
       <c r="I16" s="9"/>
@@ -6209,9 +6098,9 @@
     </row>
     <row r="17" spans="1:16" s="38" customFormat="1" ht="15.75">
       <c r="A17" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="53"/>
+        <v>255</v>
+      </c>
+      <c r="C17" s="52"/>
     </row>
     <row r="18" spans="1:16" s="38" customFormat="1">
       <c r="A18" s="33" t="s">
@@ -6227,7 +6116,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -6238,15 +6127,15 @@
     </row>
     <row r="19" spans="1:16" s="38" customFormat="1">
       <c r="B19" s="39"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="1" t="s">
@@ -6272,7 +6161,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6473,12 +6362,12 @@
       <c r="B31" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="83">
+      <c r="C31" s="81">
         <v>0.64600000000000002</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="14" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>29</v>
@@ -6508,7 +6397,7 @@
         <v>29</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P31" s="32"/>
     </row>
@@ -6842,7 +6731,7 @@
         <v>29</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>92</v>
@@ -7034,7 +6923,7 @@
         <v>29</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P42" s="27" t="s">
         <v>92</v>
@@ -7851,7 +7740,7 @@
         <v>29</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P59" s="27" t="s">
         <v>92</v>
@@ -8811,7 +8700,7 @@
         <v>29</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P79" s="28"/>
     </row>
@@ -8831,149 +8720,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="63" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="63" customWidth="1"/>
-    <col min="7" max="14" width="18.140625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="37.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="65"/>
-    <col min="17" max="16384" width="8.85546875" style="63"/>
+    <col min="1" max="1" width="50" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="61" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="61" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="61" customWidth="1"/>
+    <col min="7" max="14" width="18.140625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="37.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="63"/>
+    <col min="17" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="63">
+      <c r="B1" s="61">
         <v>11</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="64"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:21" ht="15.75">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="69">
         <v>1</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="61" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="70" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="N11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="73" t="s">
+      <c r="P11" s="71" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8988,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>90</v>
@@ -9021,16 +8910,16 @@
         <v>29</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:21" s="21" customFormat="1">
       <c r="A13" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>36</v>
@@ -9070,7 +8959,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U13" s="49"/>
     </row>
@@ -9162,7 +9051,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U15" s="49"/>
     </row>
@@ -9208,7 +9097,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U16" s="49"/>
     </row>
@@ -9304,7 +9193,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U18" s="49"/>
     </row>
@@ -9396,7 +9285,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U20" s="49"/>
     </row>
@@ -9441,7 +9330,7 @@
       <c r="N21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="75" t="s">
+      <c r="O21" s="73" t="s">
         <v>79</v>
       </c>
       <c r="U21" s="49"/>
@@ -9502,7 +9391,7 @@
       <c r="C23" s="49">
         <v>-1E-3</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="22" t="s">
         <v>41</v>
       </c>
@@ -9580,55 +9469,55 @@
         <v>29</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U24" s="49"/>
     </row>
-    <row r="25" spans="1:21" s="70" customFormat="1">
-      <c r="A25" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="B25" s="77" t="s">
+    <row r="25" spans="1:21" s="68" customFormat="1">
+      <c r="A25" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="75">
         <v>1</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78" t="s">
+      <c r="D25" s="75"/>
+      <c r="E25" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="78" t="s">
+      <c r="F25" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="78" t="s">
+      <c r="H25" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="O25" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="U25" s="77"/>
+      <c r="I25" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="U25" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9672,7 +9561,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9691,7 +9580,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -9789,51 +9678,51 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="70" customFormat="1">
-      <c r="A11" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" s="77" t="s">
+    <row r="11" spans="1:21" s="68" customFormat="1">
+      <c r="A11" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <v>1</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="78" t="s">
+      <c r="F11" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="U11" s="77"/>
+      <c r="H11" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="U11" s="75"/>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="40" t="s">
@@ -9846,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -9893,7 +9782,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -9931,7 +9820,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -9971,7 +9860,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -10020,7 +9909,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10039,7 +9928,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10060,7 +9949,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -10148,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -10181,7 +10070,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -10196,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -10229,7 +10118,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -10321,7 +10210,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -10367,7 +10256,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -10463,7 +10352,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -10555,7 +10444,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -10739,13 +10628,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -10785,15 +10674,15 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="U25" s="32"/>
     </row>
-    <row r="28" spans="1:21" s="63" customFormat="1">
-      <c r="P28" s="65"/>
-    </row>
-    <row r="38" spans="16:16" s="63" customFormat="1">
-      <c r="P38" s="65"/>
+    <row r="28" spans="1:21" s="61" customFormat="1">
+      <c r="P28" s="63"/>
+    </row>
+    <row r="38" spans="16:16" s="61" customFormat="1">
+      <c r="P38" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10837,7 +10726,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10856,7 +10745,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10956,7 +10845,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -10996,7 +10885,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -11011,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -11058,7 +10947,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -11096,7 +10985,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -11136,7 +11025,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -11185,7 +11074,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -11204,7 +11093,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11225,7 +11114,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -11313,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -11346,13 +11235,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -11392,7 +11281,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -11484,7 +11373,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -11530,7 +11419,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -11626,7 +11515,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -11718,7 +11607,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -11902,13 +11791,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -11948,7 +11837,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -11994,7 +11883,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12013,7 +11902,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12113,7 +12002,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -12153,7 +12042,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -12168,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -12215,7 +12104,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -12253,7 +12142,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -12293,7 +12182,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -12344,7 +12233,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12363,7 +12252,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12384,7 +12273,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -12472,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -12505,13 +12394,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -12551,7 +12440,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -12643,7 +12532,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -12689,7 +12578,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -12741,7 +12630,7 @@
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>18</v>
@@ -12782,10 +12671,10 @@
         <v>29</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -12877,7 +12766,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -13061,13 +12950,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -13107,7 +12996,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -13152,7 +13041,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13171,7 +13060,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -13271,7 +13160,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -13311,7 +13200,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -13326,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -13373,7 +13262,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -13411,7 +13300,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -13451,7 +13340,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -13501,7 +13390,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13520,7 +13409,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -13541,7 +13430,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -13629,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -13662,13 +13551,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -13708,7 +13597,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -13800,7 +13689,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -13846,7 +13735,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -13942,7 +13831,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -14034,7 +13923,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -14218,13 +14107,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -14264,7 +14153,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -14310,7 +14199,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14329,7 +14218,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14429,7 +14318,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -14469,7 +14358,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -14484,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -14531,7 +14420,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -14569,7 +14458,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -14609,7 +14498,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -14670,7 +14559,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -14769,7 +14658,7 @@
       <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -14803,7 +14692,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O11" s="24"/>
     </row>
@@ -14814,7 +14703,7 @@
       <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="60">
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -14848,7 +14737,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O12" s="24"/>
     </row>
@@ -14897,7 +14786,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14916,7 +14805,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14937,7 +14826,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -15025,7 +14914,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -15058,13 +14947,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U12" s="40"/>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -15104,7 +14993,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -15196,7 +15085,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -15242,7 +15131,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -15294,7 +15183,7 @@
     </row>
     <row r="18" spans="1:21" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>18</v>
@@ -15335,10 +15224,10 @@
         <v>29</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1">
@@ -15429,7 +15318,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -15613,13 +15502,13 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -15659,7 +15548,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -15705,7 +15594,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -15724,7 +15613,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -15824,7 +15713,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -15864,7 +15753,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -15879,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -15926,7 +15815,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -15964,7 +15853,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -16004,7 +15893,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -16053,7 +15942,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -16072,7 +15961,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -16093,7 +15982,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -16181,7 +16070,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -16214,7 +16103,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -16229,7 +16118,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -16262,7 +16151,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -16312,7 +16201,7 @@
         <v>76</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -16359,10 +16248,10 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -16409,10 +16298,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -16462,7 +16351,7 @@
         <v>68</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -16512,7 +16401,7 @@
         <v>63</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -16562,7 +16451,7 @@
         <v>65</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -16608,10 +16497,10 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -16661,7 +16550,7 @@
         <v>79</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -16711,7 +16600,7 @@
         <v>70</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -16761,7 +16650,7 @@
         <v>72</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -16808,16 +16697,16 @@
         <v>29</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U24" s="40"/>
     </row>
     <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>36</v>
@@ -16857,7 +16746,7 @@
         <v>29</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U25" s="32"/>
     </row>
@@ -16903,7 +16792,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -16922,7 +16811,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -17022,7 +16911,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -17062,7 +16951,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -17077,7 +16966,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -17124,7 +17013,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -17162,7 +17051,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -17202,7 +17091,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -17251,7 +17140,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -17270,7 +17159,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -17291,7 +17180,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -17379,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -17412,7 +17301,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -17427,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -17460,13 +17349,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -17506,7 +17395,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -17556,7 +17445,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -17603,10 +17492,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -17653,10 +17542,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -17706,7 +17595,7 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -17756,7 +17645,7 @@
         <v>63</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -17806,7 +17695,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -17852,10 +17741,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -17905,7 +17794,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -17955,7 +17844,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -18005,7 +17894,7 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U24" s="40"/>
     </row>
@@ -18052,16 +17941,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -18101,7 +17990,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -18147,7 +18036,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -18166,7 +18055,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -18266,7 +18155,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -18306,7 +18195,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -18321,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -18368,7 +18257,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -18406,7 +18295,7 @@
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>36</v>
@@ -18446,7 +18335,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U14" s="32"/>
     </row>
@@ -18495,7 +18384,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -18514,7 +18403,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -18535,7 +18424,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -18623,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -18656,7 +18545,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -18671,7 +18560,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -18704,13 +18593,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -18750,7 +18639,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -18800,7 +18689,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -18847,10 +18736,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -18897,10 +18786,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -18950,7 +18839,7 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U18" s="40"/>
     </row>
@@ -19000,7 +18889,7 @@
         <v>63</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -19050,7 +18939,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -19096,10 +18985,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -19149,7 +19038,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -19199,7 +19088,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -19249,7 +19138,7 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U24" s="40"/>
     </row>
@@ -19296,16 +19185,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -19345,7 +19234,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -19391,7 +19280,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -19410,7 +19299,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -19510,7 +19399,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -19550,7 +19439,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -19565,7 +19454,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -19612,7 +19501,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
@@ -19650,7 +19539,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -19690,7 +19579,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -19738,7 +19627,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -19757,7 +19646,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -19778,7 +19667,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -19866,7 +19755,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -19899,7 +19788,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -19914,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -19947,13 +19836,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -19993,7 +19882,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -20043,7 +19932,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -20090,10 +19979,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -20140,10 +20029,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -20193,13 +20082,13 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>18</v>
@@ -20240,10 +20129,10 @@
         <v>29</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1">
@@ -20292,7 +20181,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -20338,10 +20227,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -20391,7 +20280,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -20441,7 +20330,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -20491,7 +20380,7 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U24" s="40"/>
     </row>
@@ -20538,16 +20427,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -20587,7 +20476,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -20632,7 +20521,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -20651,7 +20540,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -20751,7 +20640,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -20791,7 +20680,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -20806,7 +20695,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -20853,7 +20742,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
@@ -20891,7 +20780,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -20931,7 +20820,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -20995,7 +20884,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -21135,7 +21024,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P11" s="28"/>
     </row>
@@ -21325,7 +21214,7 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="P15" s="26" t="s">
         <v>226</v>
@@ -21613,7 +21502,7 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P21" s="26" t="s">
         <v>226</v>
@@ -22045,7 +21934,7 @@
         <v>29</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P30" s="26" t="s">
         <v>226</v>
@@ -22093,7 +21982,7 @@
         <v>29</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P31" s="26" t="s">
         <v>226</v>
@@ -22429,7 +22318,7 @@
         <v>29</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -22485,7 +22374,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -22504,7 +22393,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -22525,7 +22414,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -22613,7 +22502,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>90</v>
@@ -22646,7 +22535,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -22661,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -22694,13 +22583,13 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -22740,7 +22629,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -22790,7 +22679,7 @@
         <v>76</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -22837,10 +22726,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -22887,10 +22776,10 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -22940,13 +22829,13 @@
         <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U18" s="40"/>
     </row>
     <row r="19" spans="1:21" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>18</v>
@@ -22987,10 +22876,10 @@
         <v>29</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1">
@@ -23039,7 +22928,7 @@
         <v>65</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -23085,10 +22974,10 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U21" s="40"/>
     </row>
@@ -23138,7 +23027,7 @@
         <v>79</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U22" s="40"/>
     </row>
@@ -23188,7 +23077,7 @@
         <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U23" s="40"/>
     </row>
@@ -23238,7 +23127,7 @@
         <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U24" s="40"/>
     </row>
@@ -23285,16 +23174,16 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U25" s="40"/>
     </row>
     <row r="26" spans="1:21" s="7" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>36</v>
@@ -23334,7 +23223,7 @@
         <v>29</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="U26" s="32"/>
     </row>
@@ -23380,7 +23269,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -23399,7 +23288,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -23499,7 +23388,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -23539,7 +23428,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -23554,7 +23443,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -23601,7 +23490,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
@@ -23639,7 +23528,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -23679,7 +23568,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -23727,7 +23616,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -23746,7 +23635,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -23767,7 +23656,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -23855,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>90</v>
@@ -23888,13 +23777,13 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>36</v>
@@ -23934,7 +23823,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -23945,7 +23834,7 @@
       <c r="B14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="81">
         <v>1</v>
       </c>
       <c r="D14" s="32"/>
@@ -23980,10 +23869,10 @@
         <v>29</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:21" customFormat="1">
@@ -24031,7 +23920,7 @@
         <v>213</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:21" customFormat="1">
@@ -24079,7 +23968,7 @@
         <v>213</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1">
@@ -24124,7 +24013,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -24308,13 +24197,13 @@
         <v>29</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U21" s="40"/>
     </row>
     <row r="22" spans="1:21" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>36</v>
@@ -24354,7 +24243,7 @@
         <v>29</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="U22" s="32"/>
     </row>
@@ -24399,7 +24288,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -24418,7 +24307,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -24518,7 +24407,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -24558,7 +24447,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -24573,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -24620,7 +24509,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -24658,7 +24547,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -24698,7 +24587,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -24750,7 +24639,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -24769,7 +24658,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -24790,7 +24679,7 @@
       <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -24869,7 +24758,7 @@
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>36</v>
@@ -24909,10 +24798,10 @@
         <v>29</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="U12" s="40"/>
     </row>
@@ -24927,7 +24816,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>90</v>
@@ -24960,7 +24849,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="U13" s="40"/>
     </row>
@@ -25009,7 +24898,7 @@
         <v>76</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -25055,10 +24944,10 @@
         <v>29</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="U15" s="40"/>
     </row>
@@ -25104,10 +24993,10 @@
         <v>29</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="U16" s="40"/>
     </row>
@@ -25156,7 +25045,7 @@
         <v>68</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U17" s="40"/>
     </row>
@@ -25252,7 +25141,7 @@
         <v>63</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="U19" s="40"/>
     </row>
@@ -25298,7 +25187,7 @@
         <v>29</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U20" s="40"/>
     </row>
@@ -25396,7 +25285,7 @@
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1">
       <c r="A23" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>18</v>
@@ -25436,16 +25325,16 @@
         <v>29</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="U23" s="40"/>
     </row>
     <row r="24" spans="1:21" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>18</v>
@@ -25455,7 +25344,7 @@
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>29</v>
@@ -25485,16 +25374,16 @@
         <v>29</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P24" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>18</v>
@@ -25534,10 +25423,10 @@
         <v>29</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P25" s="31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="U25" s="40"/>
     </row>
@@ -25548,7 +25437,7 @@
       <c r="B26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="77">
         <v>-9.9639999999999993E-4</v>
       </c>
       <c r="D26" s="41"/>
@@ -25594,7 +25483,7 @@
       <c r="B27" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="77">
         <v>-1.3556999999999999</v>
       </c>
       <c r="D27" s="40"/>
@@ -25629,13 +25518,13 @@
         <v>29</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="U27" s="40"/>
     </row>
     <row r="28" spans="1:21" s="7" customFormat="1">
       <c r="A28" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>36</v>
@@ -25675,7 +25564,7 @@
         <v>29</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="U28" s="32"/>
     </row>
@@ -25721,7 +25610,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -25740,7 +25629,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -25840,7 +25729,7 @@
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>36</v>
@@ -25880,7 +25769,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -25895,7 +25784,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -25942,7 +25831,7 @@
       <c r="C13" s="40">
         <v>0.30315999999999999</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="15" t="s">
         <v>41</v>
       </c>
@@ -25980,7 +25869,7 @@
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>36</v>
@@ -26020,7 +25909,7 @@
         <v>29</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="U14" s="40"/>
     </row>
@@ -26080,7 +25969,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -26184,7 +26073,7 @@
       <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="60">
         <v>1</v>
       </c>
       <c r="D11" s="43"/>
@@ -26219,7 +26108,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P11" s="28"/>
     </row>
@@ -26230,7 +26119,7 @@
       <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="60">
         <v>1</v>
       </c>
       <c r="D12" s="32"/>
@@ -26265,7 +26154,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P12" s="28"/>
     </row>
@@ -26280,7 +26169,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -26327,7 +26216,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -26435,7 +26324,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -26468,10 +26357,10 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -26485,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>41</v>
@@ -26518,7 +26407,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>49</v>
@@ -26535,7 +26424,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>41</v>
@@ -26585,7 +26474,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>41</v>
@@ -26632,7 +26521,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>41</v>
@@ -26710,7 +26599,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="4:6">
@@ -26759,7 +26648,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -26776,7 +26665,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -26906,7 +26795,7 @@
         <v>29</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>87</v>
@@ -26914,7 +26803,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -26953,7 +26842,7 @@
         <v>29</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O12" s="10"/>
     </row>
@@ -27058,7 +26947,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3"/>
@@ -27166,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>90</v>
@@ -27199,7 +27088,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>51</v>
@@ -27216,7 +27105,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>90</v>
@@ -27249,7 +27138,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P12" s="24"/>
     </row>
@@ -27264,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>41</v>
@@ -27297,7 +27186,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>49</v>
@@ -27314,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>41</v>
@@ -27364,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>41</v>
@@ -27411,7 +27300,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>41</v>
@@ -27489,7 +27378,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -27539,7 +27428,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5"/>
@@ -27557,7 +27446,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
@@ -27694,7 +27583,7 @@
         <v>29</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>87</v>
@@ -27702,7 +27591,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>36</v>
@@ -27742,7 +27631,7 @@
         <v>29</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P12" s="10"/>
     </row>
